--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW28.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW28.xlsx
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>3.94118421235</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.648449999802</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="D120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="E120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="F120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="G120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="H120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="I120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="K120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="L120" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.3246249998425</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="G132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="J132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="K132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.6255666667646665</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -5195,37 +5195,37 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -7019,37 +7019,37 @@
         <v>182.0</v>
       </c>
       <c r="B183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="D183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="E183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="F183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="G183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="H183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="I183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="J183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="K183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
       <c r="L183" t="n">
-        <v>2.534009210271</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
@@ -9337,37 +9337,37 @@
         <v>243.0</v>
       </c>
       <c r="B244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="D244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="E244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="F244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="G244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="H244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="I244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="J244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="K244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
       <c r="L244" t="n">
-        <v>1.7104868420150001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="C312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="D312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="E312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="G312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="H312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="I312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="J312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="K312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
       <c r="L312" t="n">
-        <v>0.6915078949869999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="313">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>0.311124999905</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -12947,37 +12947,37 @@
         <v>338.0</v>
       </c>
       <c r="B339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="C339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="D339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="E339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="F339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="G339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="H339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="I339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="J339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="K339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="L339" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="340">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.33145921036549997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>1.353173683554</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -14239,37 +14239,37 @@
         <v>372.0</v>
       </c>
       <c r="B373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="C373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="D373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="E373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="F373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="G373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="H373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="I373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="J373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="K373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
       <c r="L373" t="n">
-        <v>3.0889166676766666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="374">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="C410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="D410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="E410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="F410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="G410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="H410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="I410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="J410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="K410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
       <c r="L410" t="n">
-        <v>4.655</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="411">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="C416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="D416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="E416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="F416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="G416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="H416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="I416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="J416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="K416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
       <c r="L416" t="n">
-        <v>7.052325000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -16063,37 +16063,37 @@
         <v>420.0</v>
       </c>
       <c r="B421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="C421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="D421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="E421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="F421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="G421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="H421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="I421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="J421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="K421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="L421" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="422">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="C446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="D446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="E446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="F446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="G446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="H446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="I446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="J446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="K446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
       <c r="L446" t="n">
-        <v>0.894250000196</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="447">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="C473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="D473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="E473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="F473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="G473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="H473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="I473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="J473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="K473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
       <c r="L473" t="n">
-        <v>0.904050000392</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -19027,37 +19027,37 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="C499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="D499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="E499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="F499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="G499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="H499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="I499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="J499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="K499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="L499" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="500">
@@ -20547,37 +20547,37 @@
         <v>538.0</v>
       </c>
       <c r="B539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="C539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="D539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="E539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="F539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="G539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="H539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="I539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="J539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="K539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
       <c r="L539" t="n">
-        <v>1.053371053119</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="540">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="C576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="D576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="E576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="F576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="G576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="H576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="I576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="J576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="K576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
       <c r="L576" t="n">
-        <v>0.6879342107049999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="C599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="D599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="E599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="F599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="G599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="H599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="I599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="J599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="K599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
       <c r="L599" t="n">
-        <v>0.898425000099</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="600">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.5842500002533333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="C618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="D618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="E618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="F618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="G618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="H618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="I618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="J618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="K618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="L618" t="n">
-        <v>1.3166999999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="619">
